--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -3412,7 +3415,7 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>20</v>
@@ -3427,13 +3430,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3466,19 +3469,19 @@
         <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3486,10 +3489,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3512,19 +3515,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3552,10 +3555,10 @@
         <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3573,7 +3576,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3597,10 +3600,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3608,14 +3611,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3634,19 +3637,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3656,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>20</v>
@@ -3671,13 +3674,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3695,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>92</v>
@@ -3710,30 +3713,30 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3756,19 +3759,19 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3817,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3832,19 +3835,19 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -3852,10 +3855,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3878,16 +3881,16 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3937,7 +3940,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3958,13 +3961,13 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -3972,14 +3975,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3998,19 +4001,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4059,7 +4062,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4074,19 +4077,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4094,14 +4097,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4120,19 +4123,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4181,7 +4184,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4196,19 +4199,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4216,10 +4219,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4242,16 +4245,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4301,7 +4304,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4322,13 +4325,13 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4336,10 +4339,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4362,17 +4365,17 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4421,7 +4424,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4436,19 +4439,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4456,10 +4459,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4482,19 +4485,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4543,7 +4546,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4552,7 +4555,7 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>104</v>
@@ -4561,27 +4564,27 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4604,19 +4607,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4641,13 +4644,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4665,7 +4668,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4674,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4689,7 +4692,7 @@
         <v>135</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4700,14 +4703,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4726,19 +4729,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4763,13 +4766,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4787,7 +4790,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4805,27 +4808,27 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4848,19 +4851,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4909,7 +4912,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4930,10 +4933,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4944,10 +4947,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4970,16 +4973,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5005,13 +5008,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5029,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5047,27 +5050,27 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5090,19 +5093,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5127,13 +5130,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5151,7 +5154,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5172,10 +5175,10 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5186,10 +5189,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5212,16 +5215,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5271,7 +5274,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5289,27 +5292,27 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5332,16 +5335,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5391,7 +5394,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5409,27 +5412,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5452,19 +5455,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5513,7 +5516,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5525,7 +5528,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5534,10 +5537,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5548,10 +5551,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5574,13 +5577,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5631,7 +5634,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5655,7 +5658,7 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5666,10 +5669,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5698,7 +5701,7 @@
         <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>141</v>
@@ -5751,7 +5754,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5775,7 +5778,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5786,14 +5789,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5815,10 +5818,10 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>141</v>
@@ -5873,7 +5876,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5908,10 +5911,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5934,13 +5937,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5991,7 +5994,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6000,7 +6003,7 @@
         <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>104</v>
@@ -6012,10 +6015,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6026,10 +6029,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6052,13 +6055,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6109,7 +6112,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6118,7 +6121,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>104</v>
@@ -6130,10 +6133,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6144,10 +6147,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6170,19 +6173,19 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6210,10 +6213,10 @@
         <v>116</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6231,7 +6234,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6249,13 +6252,13 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6266,10 +6269,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6292,19 +6295,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6329,13 +6332,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6353,7 +6356,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6371,13 +6374,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6388,10 +6391,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6414,17 +6417,17 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6473,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6497,7 +6500,7 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6508,10 +6511,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6534,13 +6537,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6591,7 +6594,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6612,10 +6615,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6626,10 +6629,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6652,16 +6655,16 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6711,7 +6714,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6732,10 +6735,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6746,10 +6749,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6772,16 +6775,16 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6831,7 +6834,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6852,10 +6855,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6866,10 +6869,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6892,19 +6895,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6953,7 +6956,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6974,10 +6977,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6988,10 +6991,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7014,13 +7017,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7071,7 +7074,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7095,7 +7098,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7106,10 +7109,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7138,7 +7141,7 @@
         <v>139</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>141</v>
@@ -7191,7 +7194,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7215,7 +7218,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7226,14 +7229,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7255,10 +7258,10 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>141</v>
@@ -7313,7 +7316,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7348,10 +7351,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7374,19 +7377,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7411,13 +7414,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7435,7 +7438,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>92</v>
@@ -7453,16 +7456,16 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7470,10 +7473,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7496,19 +7499,19 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7557,7 +7560,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7575,27 +7578,27 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7618,19 +7621,19 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7655,13 +7658,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7679,7 +7682,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7688,7 +7691,7 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>104</v>
@@ -7703,7 +7706,7 @@
         <v>135</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7714,14 +7717,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7740,19 +7743,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7777,13 +7780,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7801,7 +7804,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7819,27 +7822,27 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7865,16 +7868,16 @@
         <v>82</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7923,7 +7926,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7944,10 +7947,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1313,7 +1313,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:35:52+00:00</t>
+    <t>2025-02-09T15:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medikamentoese-therapie-freitext.xlsx
+++ b/StructureDefinition-medikamentoese-therapie-freitext.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-09T15:43:55+00:00</t>
+    <t>2025-04-28T11:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
